--- a/biology/Médecine/Vilma_Hugonnai/Vilma_Hugonnai.xlsx
+++ b/biology/Médecine/Vilma_Hugonnai/Vilma_Hugonnai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La comtesse Vilma Hugonnai de Szentgyörgy (née Hugonnai Vilma Jozefa Laura Ilka le 30 septembre 1847 à Nagytétény, Hongrie (aujourd'hui quartier de Budapest) et morte le 25 mars 1922 à Budapest) est la première femme médecin hongroise[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La comtesse Vilma Hugonnai de Szentgyörgy (née Hugonnai Vilma Jozefa Laura Ilka le 30 septembre 1847 à Nagytétény, Hongrie (aujourd'hui quartier de Budapest) et morte le 25 mars 1922 à Budapest) est la première femme médecin hongroise.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La comtesse Vilma Hugonnai est le cinquième enfant du comte Kálmán Hugonnai et de Riza Pánczély. Elle étudie la médecine à Zurich et obtient son diplôme en 1879[1]. Lorsque Hugonnai revient en Hongrie, elle ne peut y travailler en tant que médecin car l'administration hongroise refuse de reconnaître ses qualifications en raison de son sexe. Elle travaille alors comme sage-femme jusqu'en 1897, date à laquelle les autorités hongroises acceptent finalement son diplôme et où elle peut ouvrir son propre cabinet médical. La première femme à obtenir un diplôme en Hongrie est Sarolta Steinberger trois ans plus tard en 1900[2]. Aucune d'elles n'a été autorisé à pratiquer sans la supervision d'un médecin de sexe masculin jusqu'en 1913[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La comtesse Vilma Hugonnai est le cinquième enfant du comte Kálmán Hugonnai et de Riza Pánczély. Elle étudie la médecine à Zurich et obtient son diplôme en 1879. Lorsque Hugonnai revient en Hongrie, elle ne peut y travailler en tant que médecin car l'administration hongroise refuse de reconnaître ses qualifications en raison de son sexe. Elle travaille alors comme sage-femme jusqu'en 1897, date à laquelle les autorités hongroises acceptent finalement son diplôme et où elle peut ouvrir son propre cabinet médical. La première femme à obtenir un diplôme en Hongrie est Sarolta Steinberger trois ans plus tard en 1900. Aucune d'elles n'a été autorisé à pratiquer sans la supervision d'un médecin de sexe masculin jusqu'en 1913.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'astéroïde (287693) Hugonnaivilma, découvert par les astronomes hongrois Krisztián Sárneczky et Brigitta Sipőcz à la station Piszkéstető en 2003, porte son nom en sa mémoire. La nomination officielle a été publiée par le Minor Planet Center le 29 août 2015 (M.P.C. 95312)[3].  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'astéroïde (287693) Hugonnaivilma, découvert par les astronomes hongrois Krisztián Sárneczky et Brigitta Sipőcz à la station Piszkéstető en 2003, porte son nom en sa mémoire. La nomination officielle a été publiée par le Minor Planet Center le 29 août 2015 (M.P.C. 95312).  
 </t>
         </is>
       </c>
